--- a/proofOfConcept.xlsx
+++ b/proofOfConcept.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>actual</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>bbba</t>
+  </si>
+  <si>
+    <t>1 more than pwr of 2</t>
+  </si>
+  <si>
+    <t>last is just b</t>
   </si>
 </sst>
 </file>
@@ -457,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,12 +644,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -652,7 +666,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
@@ -663,7 +683,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
@@ -677,7 +703,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
@@ -703,7 +732,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>6</v>
+      </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
@@ -729,7 +761,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>7</v>
+      </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
@@ -752,7 +787,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>8</v>
+      </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
@@ -790,7 +828,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>9</v>
+      </c>
       <c r="G26" t="s">
         <v>26</v>
       </c>
@@ -819,7 +860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>10</v>
+      </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
@@ -851,7 +895,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
@@ -868,7 +915,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>SUM(G35:O35)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -882,7 +936,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" ref="C36:C41" si="0">SUM(G36:O36)</f>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
       <c r="G36">
         <v>2</v>
       </c>
@@ -890,7 +951,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
       <c r="G37">
         <v>2</v>
       </c>
@@ -901,7 +969,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
       <c r="G38">
         <v>3</v>
       </c>
@@ -915,7 +990,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
       <c r="G39">
         <v>3</v>
       </c>
@@ -932,7 +1014,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
       <c r="G40">
         <v>3</v>
       </c>
@@ -952,48 +1041,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>0</v>
       </c>
@@ -1003,14 +1123,8 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>0</v>
       </c>
@@ -1023,14 +1137,8 @@
       <c r="J48">
         <v>2</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>0</v>
       </c>
@@ -1046,14 +1154,8 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>0</v>
       </c>
@@ -1072,14 +1174,8 @@
       <c r="L50">
         <v>2</v>
       </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>0</v>
       </c>
@@ -1101,92 +1197,153 @@
       <c r="M51">
         <v>2</v>
       </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>CEILING(LOG(D56,2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" ref="B57:B64" si="1">CEILING(LOG(D57,2),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
       <c r="G58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>3</v>
-      </c>
-      <c r="J58">
-        <v>3</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
       <c r="G59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>3</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
       <c r="G60">
         <v>3</v>
       </c>
@@ -1200,16 +1357,17 @@
         <v>3</v>
       </c>
       <c r="K60">
-        <v>3</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
       <c r="G61">
         <v>3</v>
       </c>
@@ -1223,44 +1381,111 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
       <c r="G62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
         <v>1</v>
       </c>
     </row>

--- a/proofOfConcept.xlsx
+++ b/proofOfConcept.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n9360204_qut_edu_au/Documents/Documents/GitHub/Masters/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_6DA89EE3956F7798C012E91B52391779E1354E3D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC02109-C5DB-4A87-BD54-C7AE05F80E14}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="5205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -129,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +270,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,13 +1542,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1507,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/proofOfConcept.xlsx
+++ b/proofOfConcept.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n9360204_qut_edu_au/Documents/Documents/GitHub/Masters/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_6DA89EE3956F7798C012E91B52391779E1354E3D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFC02109-C5DB-4A87-BD54-C7AE05F80E14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -145,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,26 +264,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,23 +299,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,16 +474,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +507,7 @@
         <v>0.96043387010341996</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -566,8 +529,12 @@
         <f>2*SIN(PI()/8)/(1+COS(PI()/8))</f>
         <v>0.39782473475931601</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>H1^2</f>
+        <v>0.92243321884183294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.5</v>
       </c>
@@ -582,8 +549,12 @@
         <f>MAX(A3:B3)*$H$1+MIN(A3:B3)*$H$2</f>
         <v>4.7539051170195759</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>H1+H2</f>
+        <v>1.3582586048627361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -599,7 +570,7 @@
         <v>12.320855910759672</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>SQRT(2)</f>
         <v>1.4142135623730951</v>
@@ -617,7 +588,7 @@
         <v>1.9208677402068401</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -628,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
@@ -638,8 +609,28 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>0.66098517839291804</v>
+      </c>
+      <c r="X8">
+        <f>W8*H1+H2*W9</f>
+        <v>0.82022469783223917</v>
+      </c>
+      <c r="Y8">
+        <f>SQRT(W8^2+W9^2)</f>
+        <v>0.80874658418531886</v>
+      </c>
+      <c r="AA8">
+        <f>X8*H1+H2*X10</f>
+        <v>1.0187652418460469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>0.466014625710721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>C8*H1+D8*H2</f>
         <v>3.6769510798288918</v>
@@ -648,8 +639,23 @@
         <f>SQRT(C8^2+D8^2+E8^2)</f>
         <v>3.7416573867739413</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>0.57259374321346002</v>
+      </c>
+      <c r="X10">
+        <f>W10*H1+H2*W11</f>
+        <v>0.58064177706892039</v>
+      </c>
+      <c r="Y10">
+        <f>SQRT(W10^2+W11^2)</f>
+        <v>0.57777162615664612</v>
+      </c>
+      <c r="AA10">
+        <f>SQRT(W10^2+W11^2+W8^2+W9^2)</f>
+        <v>0.99392710468279122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>7</v>
       </c>
@@ -668,8 +674,11 @@
       <c r="O11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>7.7178087722445707E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C10*H1+E8*H2</f>
         <v>3.9292930905403276</v>
@@ -1580,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1592,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
